--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yolov8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ptit\iot\iot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2961C513-31A1-4485-B53A-D2BBB09D7FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +32,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dob</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -109,12 +105,15 @@
   </si>
   <si>
     <t>D20HTTT6</t>
+  </si>
+  <si>
+    <t>Dob</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,19 +453,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.6640625" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="22.6640625" style="1"/>
+    <col min="1" max="16384" width="22.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,115 +473,115 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>37510</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>37509</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
